--- a/pred_ohlcv/54_21/2019-11-02 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5133.0341</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5286.267</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5286.267</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5286.267</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5207.947099999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5557.387599999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3762.176123090002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3852.392823090002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4158.302423090003</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4014.425723090003</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4665.428423090003</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4869.676723090002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>79607.42747550004</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>79626.03747550004</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>79579.50417550004</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>79578.01417550004</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>79570.46097550004</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>79571.00777550004</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>79571.10777550004</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>79586.03777550004</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>79436.61507550004</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>79288.09347550005</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>79258.14297550004</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>79258.24297550005</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>79258.34297550005</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>79258.44297550006</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>79282.20907550005</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>79265.88057550005</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>79373.99537550005</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>79385.34907550004</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>78490.19747550004</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>73951.70517550004</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>74394.29201974004</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>73591.87201974004</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>73591.97201974005</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>73592.07201974005</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>73677.56511974006</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5133.0341</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5286.267</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5286.267</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5286.267</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5207.947099999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5245.882599999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5557.387599999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5520.912899999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5592.389899999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5454.059899999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5554.059899999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5531.0794</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5610.7194</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5836.6728</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5275.815123090003</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3762.176123090002</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3852.392823090002</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4158.302423090003</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4014.425723090003</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4665.428423090003</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>4869.676723090002</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4828.298023090003</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4830.298023090003</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4769.270416470004</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4769.370416470004</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4200.298116470004</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>4184.308616470004</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3950.238616470004</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3837.171916470004</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3837.271916470004</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3825.227516470004</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1766.253183529996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1766.153183529996</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1876.616183529996</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3350.616183529996</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3350.516183529996</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3371.216983529996</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3343.653883529997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3343.753883529997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3327.840883529997</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3235.324883529996</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3319.359383529997</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3487.089783529997</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2926.125483529996</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2986.995483529996</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1406.942924779997</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1406.942924779997</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>181.1354351200027</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>198.2529351200027</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>51.42723512000273</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1288.476164879997</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>81271.62383512002</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>79612.14425789003</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>79600.12776930004</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>79701.39707550003</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>79684.61997550003</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>79607.62747550003</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>79585.62747550003</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>79626.03747550004</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>79579.50417550004</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>79577.50417550004</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>79578.01417550004</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>79570.46097550004</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>79571.00777550004</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>79571.10777550004</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>79586.03777550004</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>79436.61507550004</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>79288.09347550005</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>79258.14297550004</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>79258.24297550005</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>79258.34297550005</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>79258.44297550006</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>79282.20907550005</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>79265.88057550005</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>79373.99537550005</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>79374.19537550004</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>78359.57327550004</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>79322.37547550004</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>79322.47547550005</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>79222.27547550004</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>79222.37547550004</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>79385.60227550004</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>78490.09747550004</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>78490.19747550004</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>78151.79747550005</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>74394.29201974004</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>73591.87201974004</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>73591.97201974005</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>73592.07201974005</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>73677.56511974006</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
